--- a/SVD_Files/CAN.xlsx
+++ b/SVD_Files/CAN.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="235">
   <si>
     <t>0x0000</t>
   </si>
@@ -286,9 +287,6 @@
   </si>
   <si>
     <t>ERR_OV_INT_EN</t>
-  </si>
-  <si>
-    <t>1 - Enable IRQ</t>
   </si>
   <si>
     <t>1 - Enable IRQ onError</t>
@@ -553,7 +551,236 @@
     <t>0: No req to send, 1: Tx req active</t>
   </si>
   <si>
-    <t xml:space="preserve">0: no datd, 1: </t>
+    <t>0: no data, 1: data in buff</t>
+  </si>
+  <si>
+    <t>1: data overwritten</t>
+  </si>
+  <si>
+    <t>0x00C0</t>
+  </si>
+  <si>
+    <t>INT_RX</t>
+  </si>
+  <si>
+    <t>0..31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: enable IRQ onBuffReceive </t>
+  </si>
+  <si>
+    <t>0x00C4</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>RX_IRQ_EN</t>
+  </si>
+  <si>
+    <t>1: RX FIFO Full</t>
+  </si>
+  <si>
+    <t>0x00C8</t>
+  </si>
+  <si>
+    <t>INT_TX</t>
+  </si>
+  <si>
+    <t>TX_IRQ_EN</t>
+  </si>
+  <si>
+    <t>1: enable IRQ onBuffGetFree, for fill new data</t>
+  </si>
+  <si>
+    <t>0x00CC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TX                 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(RO)</t>
+    </r>
+  </si>
+  <si>
+    <t>TX_nREQ</t>
+  </si>
+  <si>
+    <t>0: Active req for TX if buff enabled, 1: Inactive</t>
+  </si>
+  <si>
+    <t>0x0200</t>
+  </si>
+  <si>
+    <t>BUFF[0].ID</t>
+  </si>
+  <si>
+    <t>0x0204</t>
+  </si>
+  <si>
+    <t>BUFF[0].DLC</t>
+  </si>
+  <si>
+    <t>0x0208</t>
+  </si>
+  <si>
+    <t>BUFF[0].DATAL</t>
+  </si>
+  <si>
+    <t>BUFF[0].DATAH</t>
+  </si>
+  <si>
+    <t>like RXID,TXID</t>
+  </si>
+  <si>
+    <t>like RXDLC, TXDLC</t>
+  </si>
+  <si>
+    <t>like RXDATAL, TXDATAL</t>
+  </si>
+  <si>
+    <t>like RXDATAH, TXDATAH</t>
+  </si>
+  <si>
+    <t>Buff regs do not autoclear on reset!</t>
+  </si>
+  <si>
+    <t>0x0210</t>
+  </si>
+  <si>
+    <t>BUFF[1]</t>
+  </si>
+  <si>
+    <t>0x03FC</t>
+  </si>
+  <si>
+    <t>BUFF[31]</t>
+  </si>
+  <si>
+    <t>like BUFF[0]</t>
+  </si>
+  <si>
+    <t>0x0400</t>
+  </si>
+  <si>
+    <t>0x07FF</t>
+  </si>
+  <si>
+    <t>RESERVED</t>
+  </si>
+  <si>
+    <t>0x0500</t>
+  </si>
+  <si>
+    <t>0x0504</t>
+  </si>
+  <si>
+    <t>FILTER[0].MASK</t>
+  </si>
+  <si>
+    <t>MASK</t>
+  </si>
+  <si>
+    <t>FILTER[0].FILTER</t>
+  </si>
+  <si>
+    <t>ID Mask for RX messages</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>ID Value for RX messages, RX_Accept = ID &amp; MASK == FILTER</t>
+  </si>
+  <si>
+    <t>0x0508</t>
+  </si>
+  <si>
+    <t>FILTER[1]</t>
+  </si>
+  <si>
+    <t>0x0510</t>
+  </si>
+  <si>
+    <t>FILTER[2]</t>
+  </si>
+  <si>
+    <t>like FILTER[0]</t>
+  </si>
+  <si>
+    <t>0x05FC</t>
+  </si>
+  <si>
+    <t>FILTER[31]</t>
+  </si>
+  <si>
+    <t>CAN1</t>
+  </si>
+  <si>
+    <t>CAN2</t>
+  </si>
+  <si>
+    <t>1986VE1</t>
+  </si>
+  <si>
+    <t>1986VE3</t>
+  </si>
+  <si>
+    <t>1986VE9x</t>
+  </si>
+  <si>
+    <t>1986VE8</t>
+  </si>
+  <si>
+    <t>1923VK014</t>
+  </si>
+  <si>
+    <t>Esila</t>
+  </si>
+  <si>
+    <t>0x4000_0000</t>
+  </si>
+  <si>
+    <t>0x4000_8000</t>
+  </si>
+  <si>
+    <t>0x4009_0000</t>
+  </si>
+  <si>
+    <t>0x4009_1000</t>
+  </si>
+  <si>
+    <t>0x4008_B000</t>
+  </si>
+  <si>
+    <t>0x4008_C000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 - Enable IRQ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Enable all others IRQ)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -597,7 +824,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +834,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -814,11 +1047,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1099,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:K124"/>
+  <dimension ref="A4:AL165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,611 +1353,789 @@
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="56.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>3</v>
-      </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>7</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
+      <c r="A23" s="18">
+        <v>8</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
-        <v>8</v>
+      <c r="A24" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>44</v>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="16" t="s">
-        <v>69</v>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="17" t="s">
-        <v>70</v>
+      <c r="A27" s="20">
+        <v>11</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
-        <v>11</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>48</v>
+      <c r="A28" s="4">
+        <v>12</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>12</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>49</v>
+      <c r="A29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
+        <v>27</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
-        <v>27</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C52" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C53" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C54" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>0</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>1</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>2</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>4</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="25"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>0</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>1</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>2</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>3</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>4</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+      <c r="AL72"/>
+    </row>
+    <row r="73" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C73" s="25"/>
       <c r="D73"/>
@@ -1725,15 +2146,44 @@
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
-    </row>
-    <row r="74" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="25"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
+      <c r="AL73"/>
+    </row>
+    <row r="74" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
@@ -1742,53 +2192,148 @@
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
-    </row>
-    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+    </row>
+    <row r="75" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="5" t="s">
         <v>103</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
+      <c r="AL75"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
+      <c r="AL80"/>
+    </row>
+    <row r="81" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C81" s="25"/>
       <c r="D81"/>
@@ -1799,15 +2344,44 @@
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
-    </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="25"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
+      <c r="AL81"/>
+    </row>
+    <row r="82" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
@@ -1816,67 +2390,127 @@
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
-    </row>
-    <row r="83" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
+      <c r="AL82"/>
+    </row>
+    <row r="83" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+      <c r="AK83"/>
+      <c r="AL83"/>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>8</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="35"/>
-    </row>
-    <row r="84" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" s="35"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C84" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>115</v>
@@ -1885,36 +2519,69 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C89" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+      <c r="AG93"/>
+      <c r="AH93"/>
+      <c r="AI93"/>
+      <c r="AJ93"/>
+      <c r="AK93"/>
+      <c r="AL93"/>
+    </row>
+    <row r="94" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>129</v>
       </c>
@@ -1930,15 +2597,44 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
-    </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="25"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+      <c r="AG94"/>
+      <c r="AH94"/>
+      <c r="AI94"/>
+      <c r="AJ94"/>
+      <c r="AK94"/>
+      <c r="AL94"/>
+    </row>
+    <row r="95" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
@@ -1947,76 +2643,135 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
-    </row>
-    <row r="96" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+      <c r="AG95"/>
+      <c r="AH95"/>
+      <c r="AI95"/>
+      <c r="AJ95"/>
+      <c r="AK95"/>
+      <c r="AL95"/>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D96" s="35"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="7" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="36"/>
+    </row>
+    <row r="103" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="37"/>
-    </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="25"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
+      <c r="AE103"/>
+      <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103"/>
+      <c r="AI103"/>
+      <c r="AJ103"/>
+      <c r="AK103"/>
+      <c r="AL103"/>
+    </row>
+    <row r="104" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>143</v>
       </c>
@@ -2032,15 +2787,44 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
-    </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AD104"/>
+      <c r="AE104"/>
+      <c r="AF104"/>
+      <c r="AG104"/>
+      <c r="AH104"/>
+      <c r="AI104"/>
+      <c r="AJ104"/>
+      <c r="AK104"/>
+      <c r="AL104"/>
+    </row>
+    <row r="105" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B105" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="25"/>
+      <c r="C105" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
@@ -2049,80 +2833,139 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
-    </row>
-    <row r="106" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
+      <c r="AE105"/>
+      <c r="AF105"/>
+      <c r="AG105"/>
+      <c r="AH105"/>
+      <c r="AI105"/>
+      <c r="AJ105"/>
+      <c r="AK105"/>
+      <c r="AL105"/>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D106" s="35"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="7" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+      <c r="AJ113"/>
+      <c r="AK113"/>
+      <c r="AL113"/>
+    </row>
+    <row r="114" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>153</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C114" s="25"/>
       <c r="D114"/>
       <c r="E114"/>
       <c r="F114"/>
@@ -2131,13 +2974,40 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
-    </row>
-    <row r="115" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114"/>
+      <c r="AI114"/>
+      <c r="AJ114"/>
+      <c r="AK114"/>
+      <c r="AL114"/>
+    </row>
+    <row r="115" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C115" s="25"/>
       <c r="D115"/>
@@ -2148,15 +3018,44 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
-    </row>
-    <row r="116" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B116" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" s="25"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
+      <c r="AE115"/>
+      <c r="AF115"/>
+      <c r="AG115"/>
+      <c r="AH115"/>
+      <c r="AI115"/>
+      <c r="AJ115"/>
+      <c r="AK115"/>
+      <c r="AL115"/>
+    </row>
+    <row r="116" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>0</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D116"/>
       <c r="E116"/>
       <c r="F116"/>
@@ -2165,10 +3064,37 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
-    </row>
-    <row r="117" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AD116"/>
+      <c r="AE116"/>
+      <c r="AF116"/>
+      <c r="AG116"/>
+      <c r="AH116"/>
+      <c r="AI116"/>
+      <c r="AJ116"/>
+      <c r="AK116"/>
+      <c r="AL116"/>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>154</v>
@@ -2176,84 +3102,1376 @@
       <c r="C117" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="35"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>2</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
-        <v>2</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>3</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
-        <v>3</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>4</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
-        <v>4</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>5</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
-        <v>5</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>6</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
-        <v>6</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>7</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
-        <v>7</v>
-      </c>
-      <c r="B124" t="s">
-        <v>161</v>
-      </c>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+      <c r="AA128"/>
+      <c r="AB128"/>
+      <c r="AC128"/>
+      <c r="AD128"/>
+      <c r="AE128"/>
+      <c r="AF128"/>
+      <c r="AG128"/>
+      <c r="AH128"/>
+      <c r="AI128"/>
+      <c r="AJ128"/>
+      <c r="AK128"/>
+      <c r="AL128"/>
+    </row>
+    <row r="129" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
+      <c r="AA129"/>
+      <c r="AB129"/>
+      <c r="AC129"/>
+      <c r="AD129"/>
+      <c r="AE129"/>
+      <c r="AF129"/>
+      <c r="AG129"/>
+      <c r="AH129"/>
+      <c r="AI129"/>
+      <c r="AJ129"/>
+      <c r="AK129"/>
+      <c r="AL129"/>
+    </row>
+    <row r="130" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+      <c r="AA130"/>
+      <c r="AB130"/>
+      <c r="AC130"/>
+      <c r="AD130"/>
+      <c r="AE130"/>
+      <c r="AF130"/>
+      <c r="AG130"/>
+      <c r="AH130"/>
+      <c r="AI130"/>
+      <c r="AJ130"/>
+      <c r="AK130"/>
+      <c r="AL130"/>
+    </row>
+    <row r="131" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+      <c r="AB131"/>
+      <c r="AC131"/>
+      <c r="AD131"/>
+      <c r="AE131"/>
+      <c r="AF131"/>
+      <c r="AG131"/>
+      <c r="AH131"/>
+      <c r="AI131"/>
+      <c r="AJ131"/>
+      <c r="AK131"/>
+      <c r="AL131"/>
+    </row>
+    <row r="132" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+      <c r="AB132"/>
+      <c r="AC132"/>
+      <c r="AD132"/>
+      <c r="AE132"/>
+      <c r="AF132"/>
+      <c r="AG132"/>
+      <c r="AH132"/>
+      <c r="AI132"/>
+      <c r="AJ132"/>
+      <c r="AK132"/>
+      <c r="AL132"/>
+    </row>
+    <row r="133" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+      <c r="Y133"/>
+      <c r="Z133"/>
+      <c r="AA133"/>
+      <c r="AB133"/>
+      <c r="AC133"/>
+      <c r="AD133"/>
+      <c r="AE133"/>
+      <c r="AF133"/>
+      <c r="AG133"/>
+      <c r="AH133"/>
+      <c r="AI133"/>
+      <c r="AJ133"/>
+      <c r="AK133"/>
+      <c r="AL133"/>
+    </row>
+    <row r="134" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+      <c r="AA134"/>
+      <c r="AB134"/>
+      <c r="AC134"/>
+      <c r="AD134"/>
+      <c r="AE134"/>
+      <c r="AF134"/>
+      <c r="AG134"/>
+      <c r="AH134"/>
+      <c r="AI134"/>
+      <c r="AJ134"/>
+      <c r="AK134"/>
+      <c r="AL134"/>
+    </row>
+    <row r="135" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+      <c r="AB135"/>
+      <c r="AC135"/>
+      <c r="AD135"/>
+      <c r="AE135"/>
+      <c r="AF135"/>
+      <c r="AG135"/>
+      <c r="AH135"/>
+      <c r="AI135"/>
+      <c r="AJ135"/>
+      <c r="AK135"/>
+      <c r="AL135"/>
+    </row>
+    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A140" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+    </row>
+    <row r="142" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+      <c r="AB142"/>
+      <c r="AC142"/>
+      <c r="AD142"/>
+      <c r="AE142"/>
+      <c r="AF142"/>
+      <c r="AG142"/>
+      <c r="AH142"/>
+      <c r="AI142"/>
+      <c r="AJ142"/>
+      <c r="AK142"/>
+      <c r="AL142"/>
+    </row>
+    <row r="143" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
+      <c r="X143"/>
+      <c r="Y143"/>
+      <c r="Z143"/>
+      <c r="AA143"/>
+      <c r="AB143"/>
+      <c r="AC143"/>
+      <c r="AD143"/>
+      <c r="AE143"/>
+      <c r="AF143"/>
+      <c r="AG143"/>
+      <c r="AH143"/>
+      <c r="AI143"/>
+      <c r="AJ143"/>
+      <c r="AK143"/>
+      <c r="AL143"/>
+    </row>
+    <row r="144" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+      <c r="AA144"/>
+      <c r="AB144"/>
+      <c r="AC144"/>
+      <c r="AD144"/>
+      <c r="AE144"/>
+      <c r="AF144"/>
+      <c r="AG144"/>
+      <c r="AH144"/>
+      <c r="AI144"/>
+      <c r="AJ144"/>
+      <c r="AK144"/>
+      <c r="AL144"/>
+    </row>
+    <row r="145" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+      <c r="Y145"/>
+      <c r="Z145"/>
+      <c r="AA145"/>
+      <c r="AB145"/>
+      <c r="AC145"/>
+      <c r="AD145"/>
+      <c r="AE145"/>
+      <c r="AF145"/>
+      <c r="AG145"/>
+      <c r="AH145"/>
+      <c r="AI145"/>
+      <c r="AJ145"/>
+      <c r="AK145"/>
+      <c r="AL145"/>
+    </row>
+    <row r="147" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+      <c r="AA147"/>
+      <c r="AB147"/>
+      <c r="AC147"/>
+      <c r="AD147"/>
+      <c r="AE147"/>
+      <c r="AF147"/>
+      <c r="AG147"/>
+      <c r="AH147"/>
+      <c r="AI147"/>
+      <c r="AJ147"/>
+      <c r="AK147"/>
+      <c r="AL147"/>
+    </row>
+    <row r="148" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+      <c r="AA148"/>
+      <c r="AB148"/>
+      <c r="AC148"/>
+      <c r="AD148"/>
+      <c r="AE148"/>
+      <c r="AF148"/>
+      <c r="AG148"/>
+      <c r="AH148"/>
+      <c r="AI148"/>
+      <c r="AJ148"/>
+      <c r="AK148"/>
+      <c r="AL148"/>
+    </row>
+    <row r="149" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+      <c r="Y149"/>
+      <c r="Z149"/>
+      <c r="AA149"/>
+      <c r="AB149"/>
+      <c r="AC149"/>
+      <c r="AD149"/>
+      <c r="AE149"/>
+      <c r="AF149"/>
+      <c r="AG149"/>
+      <c r="AH149"/>
+      <c r="AI149"/>
+      <c r="AJ149"/>
+      <c r="AK149"/>
+      <c r="AL149"/>
+    </row>
+    <row r="151" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C151" s="37"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+      <c r="AB151"/>
+      <c r="AC151"/>
+      <c r="AD151"/>
+      <c r="AE151"/>
+      <c r="AF151"/>
+      <c r="AG151"/>
+      <c r="AH151"/>
+      <c r="AI151"/>
+      <c r="AJ151"/>
+      <c r="AK151"/>
+      <c r="AL151"/>
+    </row>
+    <row r="152" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" s="37"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+      <c r="AB152"/>
+      <c r="AC152"/>
+      <c r="AD152"/>
+      <c r="AE152"/>
+      <c r="AF152"/>
+      <c r="AG152"/>
+      <c r="AH152"/>
+      <c r="AI152"/>
+      <c r="AJ152"/>
+      <c r="AK152"/>
+      <c r="AL152"/>
+    </row>
+    <row r="154" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C154" s="37"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+      <c r="Y154"/>
+      <c r="Z154"/>
+      <c r="AA154"/>
+      <c r="AB154"/>
+      <c r="AC154"/>
+      <c r="AD154"/>
+      <c r="AE154"/>
+      <c r="AF154"/>
+      <c r="AG154"/>
+      <c r="AH154"/>
+      <c r="AI154"/>
+      <c r="AJ154"/>
+      <c r="AK154"/>
+      <c r="AL154"/>
+    </row>
+    <row r="155" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+      <c r="Y155"/>
+      <c r="Z155"/>
+      <c r="AA155"/>
+      <c r="AB155"/>
+      <c r="AC155"/>
+      <c r="AD155"/>
+      <c r="AE155"/>
+      <c r="AF155"/>
+      <c r="AG155"/>
+      <c r="AH155"/>
+      <c r="AI155"/>
+      <c r="AJ155"/>
+      <c r="AK155"/>
+      <c r="AL155"/>
+    </row>
+    <row r="156" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C156" s="37"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+      <c r="Y156"/>
+      <c r="Z156"/>
+      <c r="AA156"/>
+      <c r="AB156"/>
+      <c r="AC156"/>
+      <c r="AD156"/>
+      <c r="AE156"/>
+      <c r="AF156"/>
+      <c r="AG156"/>
+      <c r="AH156"/>
+      <c r="AI156"/>
+      <c r="AJ156"/>
+      <c r="AK156"/>
+      <c r="AL156"/>
+    </row>
+    <row r="157" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+      <c r="Y157"/>
+      <c r="Z157"/>
+      <c r="AA157"/>
+      <c r="AB157"/>
+      <c r="AC157"/>
+      <c r="AD157"/>
+      <c r="AE157"/>
+      <c r="AF157"/>
+      <c r="AG157"/>
+      <c r="AH157"/>
+      <c r="AI157"/>
+      <c r="AJ157"/>
+      <c r="AK157"/>
+      <c r="AL157"/>
+    </row>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162"/>
+      <c r="R162"/>
+      <c r="S162"/>
+      <c r="T162"/>
+      <c r="U162"/>
+      <c r="V162"/>
+      <c r="W162"/>
+      <c r="X162"/>
+      <c r="Y162"/>
+      <c r="Z162"/>
+      <c r="AA162"/>
+      <c r="AB162"/>
+      <c r="AC162"/>
+      <c r="AD162"/>
+      <c r="AE162"/>
+      <c r="AF162"/>
+      <c r="AG162"/>
+      <c r="AH162"/>
+      <c r="AI162"/>
+      <c r="AJ162"/>
+      <c r="AK162"/>
+      <c r="AL162"/>
+    </row>
+    <row r="163" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+      <c r="Q163"/>
+      <c r="R163"/>
+      <c r="S163"/>
+      <c r="T163"/>
+      <c r="U163"/>
+      <c r="V163"/>
+      <c r="W163"/>
+      <c r="X163"/>
+      <c r="Y163"/>
+      <c r="Z163"/>
+      <c r="AA163"/>
+      <c r="AB163"/>
+      <c r="AC163"/>
+      <c r="AD163"/>
+      <c r="AE163"/>
+      <c r="AF163"/>
+      <c r="AG163"/>
+      <c r="AH163"/>
+      <c r="AI163"/>
+      <c r="AJ163"/>
+      <c r="AK163"/>
+      <c r="AL163"/>
+    </row>
+    <row r="164" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+      <c r="Q164"/>
+      <c r="R164"/>
+      <c r="S164"/>
+      <c r="T164"/>
+      <c r="U164"/>
+      <c r="V164"/>
+      <c r="W164"/>
+      <c r="X164"/>
+      <c r="Y164"/>
+      <c r="Z164"/>
+      <c r="AA164"/>
+      <c r="AB164"/>
+      <c r="AC164"/>
+      <c r="AD164"/>
+      <c r="AE164"/>
+      <c r="AF164"/>
+      <c r="AG164"/>
+      <c r="AH164"/>
+      <c r="AI164"/>
+      <c r="AJ164"/>
+      <c r="AK164"/>
+      <c r="AL164"/>
+    </row>
+    <row r="165" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+      <c r="Q165"/>
+      <c r="R165"/>
+      <c r="S165"/>
+      <c r="T165"/>
+      <c r="U165"/>
+      <c r="V165"/>
+      <c r="W165"/>
+      <c r="X165"/>
+      <c r="Y165"/>
+      <c r="Z165"/>
+      <c r="AA165"/>
+      <c r="AB165"/>
+      <c r="AC165"/>
+      <c r="AD165"/>
+      <c r="AE165"/>
+      <c r="AF165"/>
+      <c r="AG165"/>
+      <c r="AH165"/>
+      <c r="AI165"/>
+      <c r="AJ165"/>
+      <c r="AK165"/>
+      <c r="AL165"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A140:C140"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SVD_Files/CAN.xlsx
+++ b/SVD_Files/CAN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="236">
   <si>
     <t>0x0000</t>
   </si>
@@ -371,9 +371,6 @@
   </si>
   <si>
     <t>1: Active Remote transmission request - need answer!</t>
-  </si>
-  <si>
-    <t>Reserved0 bit: set always 1!</t>
   </si>
   <si>
     <r>
@@ -781,6 +778,12 @@
       </rPr>
       <t>(Enable all others IRQ)</t>
     </r>
+  </si>
+  <si>
+    <t>0x020C</t>
+  </si>
+  <si>
+    <t>Reserved0 bit: set always 0!</t>
   </si>
 </sst>
 </file>
@@ -1052,16 +1055,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1344,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AL165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,7 +1951,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
@@ -2132,10 +2135,10 @@
     </row>
     <row r="73" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>125</v>
       </c>
       <c r="C73" s="25"/>
       <c r="D73"/>
@@ -2286,7 +2289,7 @@
     </row>
     <row r="80" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>107</v>
@@ -2330,10 +2333,10 @@
     </row>
     <row r="81" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>127</v>
       </c>
       <c r="C81" s="25"/>
       <c r="D81"/>
@@ -2380,7 +2383,7 @@
         <v>110</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -2483,7 +2486,7 @@
         <v>112</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
@@ -2494,7 +2497,7 @@
         <v>113</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
@@ -2505,7 +2508,7 @@
         <v>114</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.25">
@@ -2516,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.25">
@@ -2531,7 +2534,7 @@
     <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>14</v>
@@ -2539,10 +2542,10 @@
     </row>
     <row r="93" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C93" s="25"/>
       <c r="D93"/>
@@ -2583,10 +2586,10 @@
     </row>
     <row r="94" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C94" s="25"/>
       <c r="D94"/>
@@ -2630,10 +2633,10 @@
         <v>95</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -2673,13 +2676,13 @@
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.25">
@@ -2687,10 +2690,10 @@
         <v>23</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.25">
@@ -2698,10 +2701,10 @@
         <v>24</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.25">
@@ -2716,7 +2719,7 @@
     <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>14</v>
@@ -2729,10 +2732,10 @@
     </row>
     <row r="103" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C103" s="25"/>
       <c r="D103"/>
@@ -2773,10 +2776,10 @@
     </row>
     <row r="104" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" s="25"/>
       <c r="D104"/>
@@ -2820,10 +2823,10 @@
         <v>95</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
@@ -2863,13 +2866,13 @@
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.25">
@@ -2877,10 +2880,10 @@
         <v>23</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.25">
@@ -2888,10 +2891,10 @@
         <v>24</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.25">
@@ -2906,7 +2909,7 @@
     <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>14</v>
@@ -2914,13 +2917,13 @@
     </row>
     <row r="113" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D113"/>
       <c r="E113"/>
@@ -2960,10 +2963,10 @@
     </row>
     <row r="114" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C114" s="25"/>
       <c r="D114"/>
@@ -3004,10 +3007,10 @@
     </row>
     <row r="115" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>151</v>
       </c>
       <c r="C115" s="25"/>
       <c r="D115"/>
@@ -3051,10 +3054,10 @@
         <v>0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D116"/>
       <c r="E116"/>
@@ -3097,10 +3100,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
@@ -3108,10 +3111,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
@@ -3119,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.25">
@@ -3130,10 +3133,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
@@ -3141,10 +3144,10 @@
         <v>5</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.25">
@@ -3152,10 +3155,10 @@
         <v>6</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.25">
@@ -3163,10 +3166,10 @@
         <v>7</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.25">
@@ -3189,10 +3192,10 @@
     </row>
     <row r="128" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128"/>
@@ -3233,13 +3236,13 @@
     </row>
     <row r="129" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="D129"/>
       <c r="E129"/>
@@ -3279,10 +3282,10 @@
     </row>
     <row r="130" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130"/>
@@ -3323,13 +3326,13 @@
     </row>
     <row r="131" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D131"/>
       <c r="E131"/>
@@ -3369,10 +3372,10 @@
     </row>
     <row r="132" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132"/>
@@ -3413,13 +3416,13 @@
     </row>
     <row r="133" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="D133"/>
       <c r="E133"/>
@@ -3459,10 +3462,10 @@
     </row>
     <row r="134" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134"/>
@@ -3503,13 +3506,13 @@
     </row>
     <row r="135" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="D135"/>
       <c r="E135"/>
@@ -3559,28 +3562,28 @@
     <row r="137" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A140" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
+      <c r="A140" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
     </row>
     <row r="142" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C142" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D142"/>
       <c r="E142"/>
@@ -3620,13 +3623,13 @@
     </row>
     <row r="143" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C143" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D143"/>
       <c r="E143"/>
@@ -3666,13 +3669,13 @@
     </row>
     <row r="144" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="C144" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D144"/>
       <c r="E144"/>
@@ -3712,13 +3715,13 @@
     </row>
     <row r="145" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D145"/>
       <c r="E145"/>
@@ -3758,13 +3761,13 @@
     </row>
     <row r="147" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C147" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D147"/>
       <c r="E147"/>
@@ -3804,13 +3807,13 @@
     </row>
     <row r="148" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D148"/>
       <c r="E148"/>
@@ -3850,13 +3853,13 @@
     </row>
     <row r="149" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C149" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D149"/>
       <c r="E149"/>
@@ -3896,10 +3899,10 @@
     </row>
     <row r="151" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151"/>
@@ -3940,10 +3943,10 @@
     </row>
     <row r="152" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152"/>
@@ -3984,10 +3987,10 @@
     </row>
     <row r="154" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154"/>
@@ -4028,13 +4031,13 @@
     </row>
     <row r="155" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D155"/>
       <c r="E155"/>
@@ -4074,10 +4077,10 @@
     </row>
     <row r="156" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C156" s="37"/>
       <c r="D156"/>
@@ -4118,13 +4121,13 @@
     </row>
     <row r="157" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="D157"/>
       <c r="E157"/>
@@ -4174,7 +4177,7 @@
     <row r="159" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>14</v>
@@ -4182,13 +4185,13 @@
     </row>
     <row r="162" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C162" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D162"/>
       <c r="E162"/>
@@ -4228,13 +4231,13 @@
     </row>
     <row r="163" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C163" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D163"/>
       <c r="E163"/>
@@ -4274,13 +4277,13 @@
     </row>
     <row r="164" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D164"/>
       <c r="E164"/>
@@ -4320,13 +4323,13 @@
     </row>
     <row r="165" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C165" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D165"/>
       <c r="E165"/>
@@ -4391,10 +4394,10 @@
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D1"/>
       <c r="E1"/>
@@ -4406,69 +4409,69 @@
       <c r="K1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
